--- a/data/recycling_box_installation_location/data.xlsx
+++ b/data/recycling_box_installation_location/data.xlsx
@@ -533,7 +533,7 @@
         <v>134.08556</v>
       </c>
       <c r="D7" t="str">
-        <v>山田支所</v>
+        <v>山田総合センター</v>
       </c>
       <c r="E7" t="str">
         <v>高松市川島本町191-2</v>

--- a/data/recycling_box_installation_location/data.xlsx
+++ b/data/recycling_box_installation_location/data.xlsx
@@ -853,7 +853,7 @@
         <v>134.09208</v>
       </c>
       <c r="D23" t="str">
-        <v>ヤマダ電機　家電住まいる館　ＹＡＭＡＤＡ高松春日本店</v>
+        <v>ヤマダデンキ Tecc LIFE SELECT 高松春日本店</v>
       </c>
       <c r="E23" t="str">
         <v>高松市春日町218-1</v>

--- a/data/recycling_box_installation_location/data.xlsx
+++ b/data/recycling_box_installation_location/data.xlsx
@@ -527,16 +527,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>34.27646</v>
+        <v>34.276909400788284</v>
       </c>
       <c r="C7" t="str">
-        <v>134.08556</v>
+        <v>134.08575984220596</v>
       </c>
       <c r="D7" t="str">
         <v>山田総合センター</v>
       </c>
       <c r="E7" t="str">
-        <v>高松市川島本町191-2</v>
+        <v>高松市川島本町191-10</v>
       </c>
       <c r="F7" t="str">
         <v>087-848-0165</v>
